--- a/python/output/siemens/Siemens_Results_CCI_2021-11-01default.xlsx
+++ b/python/output/siemens/Siemens_Results_CCI_2021-11-01default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daleblack/Google Drive/dev/MolloiLab/CAC-stanford-data/python/output/siemens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117A42A3-5443-E04E-A133-635BE5572935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB44304-E974-0445-800C-701E6B553120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Used_data" sheetId="1" r:id="rId1"/>
@@ -2884,13 +2884,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P3" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173:XFD173"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="98.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -13170,9 +13177,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
